--- a/public/CMC_import_Template_v1.xlsx
+++ b/public/CMC_import_Template_v1.xlsx
@@ -5,11 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Sanju Space\Web Applications\EMS\EMS-Frontend\Qubinest-Frontend\src\Components\CMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Sanju Space\Web Applications\EMS\EMS-Frontend\Qubinest-Frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCA9785-F2AE-4AE7-B193-94541190B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JggdZNuc4NyVWi8lr2zbk0uVdQby4qTUUPnUEaskhLOisXW5l4tl8xYY5n5K+lHJbK3vUJND0EIsWIdCgXdw1g==" workbookSaltValue="cmGeZZ/qvv85315foFG9vA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6DE1B7-55FD-42FD-8BCC-A5C0650D3B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +515,7 @@
   <dimension ref="A1:F2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,19 +548,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>9854248770</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
@@ -569,19 +568,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>9261940501</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
@@ -589,19 +588,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>9901149532</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="s">
@@ -609,19 +608,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>9804250055</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
@@ -629,19 +628,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>9959475522</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
@@ -16609,6 +16608,7 @@
       <c r="F2001" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="iKxGfvpzGXYNX5LoGyRFJ1HbsmVeCdQPMLqWPu3beoLDOl7FpZGj3L+Wu3GXrPvYfEVb2wndAKTS8a8Fn+Qffg==" saltValue="WAsNJuqdmQ5NnWBv4toZNg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/public/CMC_import_Template_v1.xlsx
+++ b/public/CMC_import_Template_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Sanju Space\Web Applications\EMS\EMS-Frontend\Qubinest-Frontend\src\Components\CMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Sanju Space\Web Applications\EMS\EMS-Frontend\Qubinest-Frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1523237-C7BB-4E0D-8A30-A947FBE420DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AD7ABE1-CEBB-4401-A03E-E1FBCED13A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08D14BBF-CBCC-4B8B-A59B-9BB28F188003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08D14BBF-CBCC-4B8B-A59B-9BB28F188003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>assignedTo</t>
+  </si>
+  <si>
+    <t>collegeName</t>
+  </si>
+  <si>
+    <t>yearOfStudying</t>
+  </si>
+  <si>
+    <t>courseOpt</t>
+  </si>
+  <si>
+    <t>registeredMonth</t>
+  </si>
+  <si>
+    <t>projectedAmount</t>
+  </si>
+  <si>
+    <t>preRegisteredAmount</t>
   </si>
 </sst>
 </file>
@@ -152,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -160,11 +178,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E4B6BD-EC2A-49F4-BCA0-5394EA7D932D}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +528,26 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -516,7 +555,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -524,7 +563,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -532,7 +571,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -540,7 +579,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -548,7 +587,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -556,7 +595,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -564,7 +603,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -572,7 +611,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -580,7 +619,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -588,7 +627,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -596,7 +635,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -604,7 +643,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -612,7 +651,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -620,7 +659,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -628,7 +667,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -636,7 +675,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -644,7 +683,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -652,7 +691,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -660,7 +699,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -668,7 +707,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -676,7 +715,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -684,7 +723,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -692,7 +731,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -700,7 +739,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -708,7 +747,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -716,7 +755,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -724,7 +763,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -732,7 +771,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -740,7 +779,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -748,7 +787,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -756,7 +795,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -764,7 +803,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -772,7 +811,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -780,7 +819,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -788,7 +827,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -796,7 +835,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -804,7 +843,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -812,7 +851,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -820,7 +859,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -828,7 +867,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -836,7 +875,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -844,7 +883,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -852,7 +891,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -860,7 +899,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -868,7 +907,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -876,7 +915,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -884,7 +923,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -892,7 +931,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -900,7 +939,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -908,7 +947,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -916,7 +955,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -924,7 +963,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -932,7 +971,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -940,7 +979,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -948,7 +987,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -956,7 +995,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -964,7 +1003,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -972,7 +1011,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -980,7 +1019,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -988,7 +1027,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -996,7 +1035,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1004,7 +1043,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1012,7 +1051,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1020,7 +1059,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1028,7 +1067,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1036,7 +1075,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1044,7 +1083,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1052,7 +1091,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1060,7 +1099,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1068,7 +1107,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1076,7 +1115,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1084,7 +1123,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1092,7 +1131,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1100,7 +1139,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1108,7 +1147,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1116,7 +1155,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1124,7 +1163,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1132,7 +1171,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1140,7 +1179,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1148,7 +1187,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -1156,7 +1195,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1164,7 +1203,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1172,7 +1211,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1180,7 +1219,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1188,7 +1227,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1196,7 +1235,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -1204,7 +1243,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -1212,7 +1251,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -1220,7 +1259,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1228,7 +1267,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1236,7 +1275,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -1244,7 +1283,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -1252,7 +1291,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -1260,7 +1299,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -1268,7 +1307,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -1276,7 +1315,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1284,7 +1323,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -1292,7 +1331,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -1300,7 +1339,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -1308,7 +1347,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -1316,7 +1355,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -1324,7 +1363,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -1332,7 +1371,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -1340,7 +1379,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -1348,7 +1387,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -1356,7 +1395,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -1364,7 +1403,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -1372,7 +1411,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -1380,7 +1419,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -1388,7 +1427,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -1396,7 +1435,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -1404,7 +1443,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -1412,7 +1451,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -1420,7 +1459,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -1428,7 +1467,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -1436,7 +1475,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -1444,7 +1483,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -1452,7 +1491,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -1460,7 +1499,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -1468,7 +1507,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -1476,7 +1515,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -1484,7 +1523,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -1492,7 +1531,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -1500,7 +1539,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -1508,7 +1547,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -1516,7 +1555,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -1524,7 +1563,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -1532,7 +1571,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -1540,7 +1579,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -1548,7 +1587,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -1556,7 +1595,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -1564,7 +1603,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -1572,7 +1611,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -1580,7 +1619,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -1588,7 +1627,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -1596,7 +1635,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -1604,7 +1643,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -1612,7 +1651,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -1620,7 +1659,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -1628,7 +1667,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -1636,7 +1675,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -1644,7 +1683,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -1652,7 +1691,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -1660,7 +1699,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -1668,7 +1707,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -1676,7 +1715,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -1684,7 +1723,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -1692,7 +1731,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -1700,7 +1739,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -1708,7 +1747,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -1716,7 +1755,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -1724,7 +1763,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -1732,7 +1771,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -1740,7 +1779,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -1748,7 +1787,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -1756,7 +1795,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -1764,7 +1803,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -1772,7 +1811,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -1780,7 +1819,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -1788,7 +1827,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -1796,7 +1835,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -1804,7 +1843,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -1812,7 +1851,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -1820,7 +1859,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -1828,7 +1867,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -1836,7 +1875,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -1844,7 +1883,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -1852,7 +1891,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -1860,7 +1899,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -1868,7 +1907,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -1876,7 +1915,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -1884,7 +1923,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -1892,7 +1931,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -1900,7 +1939,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -1908,7 +1947,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -1916,7 +1955,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -1924,7 +1963,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -1932,7 +1971,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -1940,7 +1979,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -1948,7 +1987,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -1956,7 +1995,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -1964,7 +2003,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -1972,7 +2011,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -1980,7 +2019,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -1988,7 +2027,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -1996,7 +2035,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -2004,7 +2043,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -2012,7 +2051,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -2020,7 +2059,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -2028,7 +2067,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -2036,7 +2075,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -2044,7 +2083,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -2052,7 +2091,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -2060,7 +2099,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -2068,7 +2107,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -2076,7 +2115,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -2084,7 +2123,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -2092,7 +2131,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -2100,7 +2139,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -2108,7 +2147,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -2116,7 +2155,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -2124,7 +2163,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -2132,7 +2171,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -2140,7 +2179,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -2148,7 +2187,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -2156,7 +2195,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -2164,7 +2203,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -2172,7 +2211,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -2180,7 +2219,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -2188,7 +2227,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -2196,7 +2235,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -2204,7 +2243,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -2212,7 +2251,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -2220,7 +2259,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -2228,7 +2267,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -2236,7 +2275,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -2244,7 +2283,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -2252,7 +2291,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -2260,7 +2299,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -2268,7 +2307,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -2276,7 +2315,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -2284,7 +2323,7 @@
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -2292,7 +2331,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -2300,7 +2339,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -2308,7 +2347,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -2316,7 +2355,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -2324,7 +2363,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -2332,7 +2371,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -2340,7 +2379,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -2348,7 +2387,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -2356,7 +2395,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -2364,7 +2403,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -2372,7 +2411,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -2380,7 +2419,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -2388,7 +2427,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -2396,7 +2435,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -2404,7 +2443,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -2412,7 +2451,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -2420,7 +2459,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -2428,7 +2467,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -2436,7 +2475,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -2444,7 +2483,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -2452,7 +2491,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -2460,7 +2499,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -2468,7 +2507,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -2476,7 +2515,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -2484,7 +2523,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -2492,7 +2531,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -2500,7 +2539,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -2508,7 +2547,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -2516,7 +2555,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -2524,7 +2563,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -2532,7 +2571,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -2540,7 +2579,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -2548,7 +2587,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -2556,7 +2595,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -2564,7 +2603,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -2572,7 +2611,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -2580,7 +2619,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -2588,7 +2627,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -2596,7 +2635,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -2604,7 +2643,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -2612,7 +2651,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -2620,7 +2659,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -2628,7 +2667,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -2636,7 +2675,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -2644,7 +2683,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -2652,7 +2691,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -2660,7 +2699,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -2668,7 +2707,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -2676,7 +2715,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -2684,7 +2723,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -2692,7 +2731,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -2700,7 +2739,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -2708,7 +2747,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -2716,7 +2755,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -2724,7 +2763,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -2732,7 +2771,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -2740,7 +2779,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -2748,7 +2787,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -2756,7 +2795,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -2764,7 +2803,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -2772,7 +2811,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -2780,7 +2819,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -2788,7 +2827,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -2796,7 +2835,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -2804,7 +2843,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -2812,7 +2851,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -2820,7 +2859,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -2828,7 +2867,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -2836,7 +2875,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -2844,7 +2883,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -2852,7 +2891,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -2860,7 +2899,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -2868,7 +2907,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -2876,7 +2915,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -2884,7 +2923,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -2892,7 +2931,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -2900,7 +2939,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -2908,7 +2947,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -2916,7 +2955,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -2924,7 +2963,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -2932,7 +2971,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -2940,7 +2979,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -2948,7 +2987,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -2956,7 +2995,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -2964,7 +3003,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -2972,7 +3011,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -2980,7 +3019,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -2988,7 +3027,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -2996,7 +3035,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -3004,7 +3043,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -3012,7 +3051,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -3020,7 +3059,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -3028,7 +3067,7 @@
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -3036,7 +3075,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -3044,7 +3083,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -3052,7 +3091,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -3060,7 +3099,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -3068,7 +3107,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -3076,7 +3115,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -3084,7 +3123,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -3092,7 +3131,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -3100,7 +3139,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -3108,7 +3147,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -3116,7 +3155,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -3124,7 +3163,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -3132,7 +3171,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -3140,7 +3179,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -3148,7 +3187,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -3156,7 +3195,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -3164,7 +3203,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -3172,7 +3211,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -3180,7 +3219,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -3188,7 +3227,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -3196,7 +3235,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -3204,7 +3243,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -3212,7 +3251,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -3220,7 +3259,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -3228,7 +3267,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -3236,7 +3275,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -3244,7 +3283,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -3252,7 +3291,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -3260,7 +3299,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -3268,7 +3307,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -3276,7 +3315,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -3284,7 +3323,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -3292,7 +3331,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -3300,7 +3339,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -3308,7 +3347,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -3316,7 +3355,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -3324,7 +3363,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -3332,7 +3371,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -3340,7 +3379,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -3348,7 +3387,7 @@
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -3356,7 +3395,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -3364,7 +3403,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -3372,7 +3411,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -3380,7 +3419,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -3388,7 +3427,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -3396,7 +3435,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -3404,7 +3443,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -3412,7 +3451,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -3420,7 +3459,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -3428,7 +3467,7 @@
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -3436,7 +3475,7 @@
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -3444,7 +3483,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -3452,7 +3491,7 @@
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -3460,7 +3499,7 @@
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -3468,7 +3507,7 @@
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -3476,7 +3515,7 @@
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -3484,7 +3523,7 @@
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -3492,7 +3531,7 @@
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -3500,7 +3539,7 @@
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -3508,7 +3547,7 @@
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -3516,7 +3555,7 @@
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -3524,7 +3563,7 @@
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -3532,7 +3571,7 @@
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -3540,7 +3579,7 @@
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -3548,7 +3587,7 @@
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -3556,7 +3595,7 @@
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -3564,7 +3603,7 @@
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -3572,7 +3611,7 @@
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -3580,7 +3619,7 @@
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -3588,7 +3627,7 @@
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -3596,7 +3635,7 @@
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -3604,7 +3643,7 @@
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -3612,7 +3651,7 @@
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -3620,7 +3659,7 @@
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -3628,7 +3667,7 @@
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -3636,7 +3675,7 @@
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -3644,7 +3683,7 @@
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -3652,7 +3691,7 @@
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -3660,7 +3699,7 @@
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -3668,7 +3707,7 @@
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -3676,7 +3715,7 @@
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -3684,7 +3723,7 @@
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -3692,7 +3731,7 @@
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -3700,7 +3739,7 @@
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -3708,7 +3747,7 @@
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -3716,7 +3755,7 @@
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -3724,7 +3763,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -3732,7 +3771,7 @@
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -3740,7 +3779,7 @@
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -3748,7 +3787,7 @@
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -3756,7 +3795,7 @@
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -3764,7 +3803,7 @@
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -3772,7 +3811,7 @@
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -3780,7 +3819,7 @@
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -3788,7 +3827,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -3796,7 +3835,7 @@
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -3804,7 +3843,7 @@
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -3812,7 +3851,7 @@
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -3820,7 +3859,7 @@
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -3828,7 +3867,7 @@
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -3836,7 +3875,7 @@
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -3844,7 +3883,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -3852,7 +3891,7 @@
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -3860,7 +3899,7 @@
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -3868,7 +3907,7 @@
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -3876,7 +3915,7 @@
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -3884,7 +3923,7 @@
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -3892,7 +3931,7 @@
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -3900,7 +3939,7 @@
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -3908,7 +3947,7 @@
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -3916,7 +3955,7 @@
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -3924,7 +3963,7 @@
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -3932,7 +3971,7 @@
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -3940,7 +3979,7 @@
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -3948,7 +3987,7 @@
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -3956,7 +3995,7 @@
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -3964,7 +4003,7 @@
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -3972,7 +4011,7 @@
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -3980,7 +4019,7 @@
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -3988,7 +4027,7 @@
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -3996,7 +4035,7 @@
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -4004,7 +4043,7 @@
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -4012,7 +4051,7 @@
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -4020,7 +4059,7 @@
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -4028,7 +4067,7 @@
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -4036,7 +4075,7 @@
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -4044,7 +4083,7 @@
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -4052,7 +4091,7 @@
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -4060,7 +4099,7 @@
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -4068,7 +4107,7 @@
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -4076,7 +4115,7 @@
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -4084,7 +4123,7 @@
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -4092,7 +4131,7 @@
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -4100,7 +4139,7 @@
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -4108,7 +4147,7 @@
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -4116,7 +4155,7 @@
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -4124,7 +4163,7 @@
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -4132,7 +4171,7 @@
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -4140,7 +4179,7 @@
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -4148,7 +4187,7 @@
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -4156,7 +4195,7 @@
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -4164,7 +4203,7 @@
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -4172,7 +4211,7 @@
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -4180,7 +4219,7 @@
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -4188,7 +4227,7 @@
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -4196,7 +4235,7 @@
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -4204,7 +4243,7 @@
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -4212,7 +4251,7 @@
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -4220,7 +4259,7 @@
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -4228,7 +4267,7 @@
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -4236,7 +4275,7 @@
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -4244,7 +4283,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -4252,7 +4291,7 @@
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -4260,7 +4299,7 @@
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -4268,7 +4307,7 @@
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -4276,7 +4315,7 @@
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -4284,7 +4323,7 @@
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -4292,7 +4331,7 @@
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -4300,7 +4339,7 @@
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -4308,7 +4347,7 @@
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -4316,7 +4355,7 @@
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -4324,7 +4363,7 @@
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -4332,7 +4371,7 @@
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -4340,7 +4379,7 @@
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -4348,7 +4387,7 @@
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -4356,7 +4395,7 @@
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -4364,7 +4403,7 @@
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -4372,7 +4411,7 @@
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -4380,7 +4419,7 @@
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -4388,7 +4427,7 @@
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -4396,7 +4435,7 @@
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -4404,7 +4443,7 @@
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -4412,7 +4451,7 @@
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -4420,7 +4459,7 @@
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -4428,7 +4467,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -4436,7 +4475,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -4444,7 +4483,7 @@
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -4452,7 +4491,7 @@
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -4460,7 +4499,7 @@
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -4468,7 +4507,7 @@
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -4476,7 +4515,7 @@
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -4484,7 +4523,7 @@
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -4492,7 +4531,7 @@
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -4500,7 +4539,7 @@
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -4508,7 +4547,7 @@
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -4516,7 +4555,7 @@
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -4524,7 +4563,7 @@
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -4532,7 +4571,7 @@
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -4540,7 +4579,7 @@
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -4548,7 +4587,7 @@
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -4556,7 +4595,7 @@
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -4564,7 +4603,7 @@
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -4572,7 +4611,7 @@
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -4580,7 +4619,7 @@
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -4588,7 +4627,7 @@
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -4596,7 +4635,7 @@
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -4604,7 +4643,7 @@
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -4612,7 +4651,7 @@
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -4620,7 +4659,7 @@
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -4628,7 +4667,7 @@
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -4636,7 +4675,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -4644,7 +4683,7 @@
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -4652,7 +4691,7 @@
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -4660,7 +4699,7 @@
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -4668,7 +4707,7 @@
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -4676,7 +4715,7 @@
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -4684,7 +4723,7 @@
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -4692,7 +4731,7 @@
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -4700,7 +4739,7 @@
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -4708,7 +4747,7 @@
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -4716,7 +4755,7 @@
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -4724,7 +4763,7 @@
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -4732,7 +4771,7 @@
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -4740,7 +4779,7 @@
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -4748,7 +4787,7 @@
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -4756,7 +4795,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -4764,7 +4803,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -4772,7 +4811,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -4780,7 +4819,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -4788,7 +4827,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -4796,7 +4835,7 @@
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -4804,7 +4843,7 @@
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -4812,7 +4851,7 @@
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -4820,7 +4859,7 @@
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -4828,7 +4867,7 @@
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -4836,7 +4875,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -4844,7 +4883,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -4852,7 +4891,7 @@
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -4860,7 +4899,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -4868,7 +4907,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -4876,7 +4915,7 @@
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -4884,7 +4923,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -4892,7 +4931,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -4900,7 +4939,7 @@
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -4908,7 +4947,7 @@
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -4916,7 +4955,7 @@
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -4924,7 +4963,7 @@
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -4932,7 +4971,7 @@
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -4940,7 +4979,7 @@
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -4948,7 +4987,7 @@
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -4956,7 +4995,7 @@
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -4964,7 +5003,7 @@
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -4972,7 +5011,7 @@
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -4980,7 +5019,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -4988,7 +5027,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -4996,7 +5035,7 @@
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -5004,7 +5043,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -5012,7 +5051,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -5020,7 +5059,7 @@
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -5028,7 +5067,7 @@
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -5036,7 +5075,7 @@
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -5044,7 +5083,7 @@
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -5052,7 +5091,7 @@
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -5060,7 +5099,7 @@
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -5068,7 +5107,7 @@
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -5076,7 +5115,7 @@
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -5084,7 +5123,7 @@
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -5092,7 +5131,7 @@
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -5100,7 +5139,7 @@
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -5108,7 +5147,7 @@
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -5116,7 +5155,7 @@
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -5124,7 +5163,7 @@
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -5132,7 +5171,7 @@
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -5140,7 +5179,7 @@
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -5148,7 +5187,7 @@
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -5156,7 +5195,7 @@
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -5164,7 +5203,7 @@
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -5172,7 +5211,7 @@
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -5180,7 +5219,7 @@
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -5188,7 +5227,7 @@
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -5196,7 +5235,7 @@
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -5204,7 +5243,7 @@
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -5212,7 +5251,7 @@
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -5220,7 +5259,7 @@
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -5228,7 +5267,7 @@
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -5236,7 +5275,7 @@
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -5244,7 +5283,7 @@
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -5252,7 +5291,7 @@
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -5260,7 +5299,7 @@
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -5268,7 +5307,7 @@
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -5276,7 +5315,7 @@
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -5284,7 +5323,7 @@
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -5292,7 +5331,7 @@
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -5300,7 +5339,7 @@
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -5308,7 +5347,7 @@
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -5316,7 +5355,7 @@
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -5324,7 +5363,7 @@
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -5332,7 +5371,7 @@
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -5340,7 +5379,7 @@
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -5348,7 +5387,7 @@
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -5356,7 +5395,7 @@
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -5364,7 +5403,7 @@
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -5372,7 +5411,7 @@
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -5380,7 +5419,7 @@
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -5388,7 +5427,7 @@
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -5396,7 +5435,7 @@
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -5404,7 +5443,7 @@
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -5412,7 +5451,7 @@
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -5420,7 +5459,7 @@
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -5428,7 +5467,7 @@
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -5436,7 +5475,7 @@
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -5444,7 +5483,7 @@
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -5452,7 +5491,7 @@
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -5460,7 +5499,7 @@
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -5468,7 +5507,7 @@
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -5476,7 +5515,7 @@
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -5484,7 +5523,7 @@
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -5492,7 +5531,7 @@
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -5500,7 +5539,7 @@
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -5508,7 +5547,7 @@
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -5516,7 +5555,7 @@
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -5524,7 +5563,7 @@
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -5532,7 +5571,7 @@
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -5540,7 +5579,7 @@
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -5548,7 +5587,7 @@
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -5556,7 +5595,7 @@
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -5564,7 +5603,7 @@
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -5572,7 +5611,7 @@
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -5580,7 +5619,7 @@
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -5588,7 +5627,7 @@
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -5596,7 +5635,7 @@
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -5604,7 +5643,7 @@
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -5612,7 +5651,7 @@
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -5620,7 +5659,7 @@
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -5628,7 +5667,7 @@
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -5636,7 +5675,7 @@
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -5644,7 +5683,7 @@
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -5652,7 +5691,7 @@
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -5660,7 +5699,7 @@
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -5668,7 +5707,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -5676,7 +5715,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -5684,7 +5723,7 @@
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -5692,7 +5731,7 @@
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -5700,7 +5739,7 @@
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -5708,7 +5747,7 @@
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -5716,7 +5755,7 @@
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -5724,7 +5763,7 @@
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -5732,7 +5771,7 @@
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -5740,7 +5779,7 @@
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -5748,7 +5787,7 @@
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -5756,7 +5795,7 @@
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -5764,7 +5803,7 @@
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -5772,7 +5811,7 @@
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -5780,7 +5819,7 @@
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -5788,7 +5827,7 @@
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -5796,7 +5835,7 @@
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -5804,7 +5843,7 @@
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -5812,7 +5851,7 @@
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -5820,7 +5859,7 @@
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -5828,7 +5867,7 @@
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -5836,7 +5875,7 @@
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -5844,7 +5883,7 @@
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -5852,7 +5891,7 @@
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -5860,7 +5899,7 @@
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -5868,7 +5907,7 @@
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -5876,7 +5915,7 @@
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -5884,7 +5923,7 @@
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -5892,7 +5931,7 @@
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -5900,7 +5939,7 @@
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -5908,7 +5947,7 @@
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -5916,7 +5955,7 @@
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -5924,7 +5963,7 @@
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -5932,7 +5971,7 @@
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -5940,7 +5979,7 @@
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -5948,7 +5987,7 @@
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -5956,7 +5995,7 @@
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -5964,7 +6003,7 @@
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -5972,7 +6011,7 @@
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -5980,7 +6019,7 @@
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -5988,7 +6027,7 @@
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -5996,7 +6035,7 @@
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -6004,7 +6043,7 @@
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -6012,7 +6051,7 @@
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -6020,7 +6059,7 @@
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -6028,7 +6067,7 @@
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -6036,7 +6075,7 @@
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -6044,7 +6083,7 @@
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -6052,7 +6091,7 @@
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -6060,7 +6099,7 @@
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -6068,7 +6107,7 @@
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -6076,7 +6115,7 @@
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -6084,7 +6123,7 @@
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -6092,7 +6131,7 @@
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -6100,7 +6139,7 @@
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -6108,7 +6147,7 @@
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -6116,7 +6155,7 @@
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -6124,7 +6163,7 @@
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -6132,7 +6171,7 @@
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -6140,7 +6179,7 @@
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -6148,7 +6187,7 @@
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -6156,7 +6195,7 @@
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -6164,7 +6203,7 @@
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -6172,7 +6211,7 @@
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -6180,7 +6219,7 @@
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -6188,7 +6227,7 @@
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -6196,7 +6235,7 @@
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -6204,7 +6243,7 @@
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -6212,7 +6251,7 @@
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -6220,7 +6259,7 @@
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -6228,7 +6267,7 @@
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -6236,7 +6275,7 @@
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -6244,7 +6283,7 @@
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -6252,7 +6291,7 @@
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -6260,7 +6299,7 @@
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -6268,7 +6307,7 @@
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -6276,7 +6315,7 @@
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -6284,7 +6323,7 @@
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -6292,7 +6331,7 @@
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -6300,7 +6339,7 @@
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -6308,7 +6347,7 @@
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -6316,7 +6355,7 @@
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -6324,7 +6363,7 @@
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -6332,7 +6371,7 @@
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -6340,7 +6379,7 @@
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -6348,7 +6387,7 @@
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -6356,7 +6395,7 @@
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -6364,7 +6403,7 @@
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -6372,7 +6411,7 @@
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -6380,7 +6419,7 @@
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -6388,7 +6427,7 @@
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -6396,7 +6435,7 @@
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -6404,7 +6443,7 @@
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -6412,7 +6451,7 @@
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -6420,7 +6459,7 @@
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -6428,7 +6467,7 @@
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -6436,7 +6475,7 @@
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -6444,7 +6483,7 @@
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -6452,7 +6491,7 @@
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -6460,7 +6499,7 @@
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -6468,7 +6507,7 @@
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -6476,7 +6515,7 @@
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -6484,7 +6523,7 @@
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -6492,7 +6531,7 @@
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -6500,7 +6539,7 @@
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -6508,7 +6547,7 @@
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -6516,7 +6555,7 @@
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -6524,7 +6563,7 @@
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -6532,7 +6571,7 @@
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -6540,7 +6579,7 @@
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -6548,7 +6587,7 @@
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -6556,7 +6595,7 @@
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -6564,7 +6603,7 @@
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -6572,7 +6611,7 @@
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -6580,7 +6619,7 @@
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -6588,7 +6627,7 @@
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -6596,7 +6635,7 @@
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -6604,7 +6643,7 @@
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -6612,7 +6651,7 @@
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -6620,7 +6659,7 @@
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -6628,7 +6667,7 @@
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -6636,7 +6675,7 @@
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -6644,7 +6683,7 @@
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -6652,7 +6691,7 @@
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -6660,7 +6699,7 @@
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -6668,7 +6707,7 @@
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -6676,7 +6715,7 @@
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -6684,7 +6723,7 @@
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -6692,7 +6731,7 @@
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -6700,7 +6739,7 @@
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -6708,7 +6747,7 @@
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -6716,7 +6755,7 @@
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -6724,7 +6763,7 @@
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -6732,7 +6771,7 @@
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -6740,7 +6779,7 @@
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -6748,7 +6787,7 @@
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -6756,7 +6795,7 @@
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -6764,7 +6803,7 @@
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -6772,7 +6811,7 @@
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -6780,7 +6819,7 @@
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -6788,7 +6827,7 @@
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -6796,7 +6835,7 @@
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -6804,7 +6843,7 @@
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -6812,7 +6851,7 @@
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -6820,7 +6859,7 @@
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -6828,7 +6867,7 @@
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -6836,7 +6875,7 @@
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -6844,7 +6883,7 @@
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -6852,7 +6891,7 @@
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -6860,7 +6899,7 @@
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -6868,7 +6907,7 @@
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -6876,7 +6915,7 @@
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -6884,7 +6923,7 @@
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -6892,7 +6931,7 @@
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -6900,7 +6939,7 @@
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -6908,7 +6947,7 @@
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -6916,7 +6955,7 @@
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -6924,7 +6963,7 @@
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -6932,7 +6971,7 @@
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -6940,7 +6979,7 @@
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -6948,7 +6987,7 @@
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -6956,7 +6995,7 @@
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -6964,7 +7003,7 @@
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -6972,7 +7011,7 @@
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -6980,7 +7019,7 @@
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -6988,7 +7027,7 @@
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -6996,7 +7035,7 @@
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -7004,7 +7043,7 @@
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -7012,7 +7051,7 @@
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -7020,7 +7059,7 @@
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -7028,7 +7067,7 @@
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -7036,7 +7075,7 @@
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -7044,7 +7083,7 @@
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -7052,7 +7091,7 @@
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -7060,7 +7099,7 @@
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -7068,7 +7107,7 @@
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -7076,7 +7115,7 @@
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -7084,7 +7123,7 @@
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -7092,7 +7131,7 @@
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -7100,7 +7139,7 @@
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -7108,7 +7147,7 @@
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -7116,7 +7155,7 @@
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -7124,7 +7163,7 @@
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -7132,7 +7171,7 @@
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -7140,7 +7179,7 @@
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -7148,7 +7187,7 @@
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -7156,7 +7195,7 @@
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -7164,7 +7203,7 @@
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -7172,7 +7211,7 @@
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -7180,7 +7219,7 @@
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -7188,7 +7227,7 @@
       <c r="E836" s="4"/>
       <c r="F836" s="4"/>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -7196,7 +7235,7 @@
       <c r="E837" s="4"/>
       <c r="F837" s="4"/>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -7204,7 +7243,7 @@
       <c r="E838" s="4"/>
       <c r="F838" s="4"/>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -7212,7 +7251,7 @@
       <c r="E839" s="4"/>
       <c r="F839" s="4"/>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -7220,7 +7259,7 @@
       <c r="E840" s="4"/>
       <c r="F840" s="4"/>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -7228,7 +7267,7 @@
       <c r="E841" s="4"/>
       <c r="F841" s="4"/>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -7236,7 +7275,7 @@
       <c r="E842" s="4"/>
       <c r="F842" s="4"/>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -7244,7 +7283,7 @@
       <c r="E843" s="4"/>
       <c r="F843" s="4"/>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -7252,7 +7291,7 @@
       <c r="E844" s="4"/>
       <c r="F844" s="4"/>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -7260,7 +7299,7 @@
       <c r="E845" s="4"/>
       <c r="F845" s="4"/>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -7268,7 +7307,7 @@
       <c r="E846" s="4"/>
       <c r="F846" s="4"/>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -7276,7 +7315,7 @@
       <c r="E847" s="4"/>
       <c r="F847" s="4"/>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -7284,7 +7323,7 @@
       <c r="E848" s="4"/>
       <c r="F848" s="4"/>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -7292,7 +7331,7 @@
       <c r="E849" s="4"/>
       <c r="F849" s="4"/>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -7300,7 +7339,7 @@
       <c r="E850" s="4"/>
       <c r="F850" s="4"/>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -7308,7 +7347,7 @@
       <c r="E851" s="4"/>
       <c r="F851" s="4"/>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -7316,7 +7355,7 @@
       <c r="E852" s="4"/>
       <c r="F852" s="4"/>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -7324,7 +7363,7 @@
       <c r="E853" s="4"/>
       <c r="F853" s="4"/>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -7332,7 +7371,7 @@
       <c r="E854" s="4"/>
       <c r="F854" s="4"/>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -7340,7 +7379,7 @@
       <c r="E855" s="4"/>
       <c r="F855" s="4"/>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -7348,7 +7387,7 @@
       <c r="E856" s="4"/>
       <c r="F856" s="4"/>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -7356,7 +7395,7 @@
       <c r="E857" s="4"/>
       <c r="F857" s="4"/>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -7364,7 +7403,7 @@
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -7372,7 +7411,7 @@
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -7380,7 +7419,7 @@
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -7388,7 +7427,7 @@
       <c r="E861" s="4"/>
       <c r="F861" s="4"/>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -7396,7 +7435,7 @@
       <c r="E862" s="4"/>
       <c r="F862" s="4"/>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -7404,7 +7443,7 @@
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -7412,7 +7451,7 @@
       <c r="E864" s="4"/>
       <c r="F864" s="4"/>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -7420,7 +7459,7 @@
       <c r="E865" s="4"/>
       <c r="F865" s="4"/>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -7428,7 +7467,7 @@
       <c r="E866" s="4"/>
       <c r="F866" s="4"/>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -7436,7 +7475,7 @@
       <c r="E867" s="4"/>
       <c r="F867" s="4"/>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -7444,7 +7483,7 @@
       <c r="E868" s="4"/>
       <c r="F868" s="4"/>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -7452,7 +7491,7 @@
       <c r="E869" s="4"/>
       <c r="F869" s="4"/>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -7460,7 +7499,7 @@
       <c r="E870" s="4"/>
       <c r="F870" s="4"/>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -7468,7 +7507,7 @@
       <c r="E871" s="4"/>
       <c r="F871" s="4"/>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -7476,7 +7515,7 @@
       <c r="E872" s="4"/>
       <c r="F872" s="4"/>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -7484,7 +7523,7 @@
       <c r="E873" s="4"/>
       <c r="F873" s="4"/>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -7492,7 +7531,7 @@
       <c r="E874" s="4"/>
       <c r="F874" s="4"/>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -7500,7 +7539,7 @@
       <c r="E875" s="4"/>
       <c r="F875" s="4"/>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -7508,7 +7547,7 @@
       <c r="E876" s="4"/>
       <c r="F876" s="4"/>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -7516,7 +7555,7 @@
       <c r="E877" s="4"/>
       <c r="F877" s="4"/>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -7524,7 +7563,7 @@
       <c r="E878" s="4"/>
       <c r="F878" s="4"/>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -7532,7 +7571,7 @@
       <c r="E879" s="4"/>
       <c r="F879" s="4"/>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -7540,7 +7579,7 @@
       <c r="E880" s="4"/>
       <c r="F880" s="4"/>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -7548,7 +7587,7 @@
       <c r="E881" s="4"/>
       <c r="F881" s="4"/>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -7556,7 +7595,7 @@
       <c r="E882" s="4"/>
       <c r="F882" s="4"/>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -7564,7 +7603,7 @@
       <c r="E883" s="4"/>
       <c r="F883" s="4"/>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -7572,7 +7611,7 @@
       <c r="E884" s="4"/>
       <c r="F884" s="4"/>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -7580,7 +7619,7 @@
       <c r="E885" s="4"/>
       <c r="F885" s="4"/>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -7588,7 +7627,7 @@
       <c r="E886" s="4"/>
       <c r="F886" s="4"/>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -7596,7 +7635,7 @@
       <c r="E887" s="4"/>
       <c r="F887" s="4"/>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -7604,7 +7643,7 @@
       <c r="E888" s="4"/>
       <c r="F888" s="4"/>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -7612,7 +7651,7 @@
       <c r="E889" s="4"/>
       <c r="F889" s="4"/>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -7620,7 +7659,7 @@
       <c r="E890" s="4"/>
       <c r="F890" s="4"/>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -7628,7 +7667,7 @@
       <c r="E891" s="4"/>
       <c r="F891" s="4"/>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -7636,7 +7675,7 @@
       <c r="E892" s="4"/>
       <c r="F892" s="4"/>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -7644,7 +7683,7 @@
       <c r="E893" s="4"/>
       <c r="F893" s="4"/>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -7652,7 +7691,7 @@
       <c r="E894" s="4"/>
       <c r="F894" s="4"/>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -7660,7 +7699,7 @@
       <c r="E895" s="4"/>
       <c r="F895" s="4"/>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -7668,7 +7707,7 @@
       <c r="E896" s="4"/>
       <c r="F896" s="4"/>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -7676,7 +7715,7 @@
       <c r="E897" s="4"/>
       <c r="F897" s="4"/>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -7684,7 +7723,7 @@
       <c r="E898" s="4"/>
       <c r="F898" s="4"/>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -7692,7 +7731,7 @@
       <c r="E899" s="4"/>
       <c r="F899" s="4"/>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -7700,7 +7739,7 @@
       <c r="E900" s="4"/>
       <c r="F900" s="4"/>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -7708,7 +7747,7 @@
       <c r="E901" s="4"/>
       <c r="F901" s="4"/>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -7716,7 +7755,7 @@
       <c r="E902" s="4"/>
       <c r="F902" s="4"/>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -7724,7 +7763,7 @@
       <c r="E903" s="4"/>
       <c r="F903" s="4"/>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -7732,7 +7771,7 @@
       <c r="E904" s="4"/>
       <c r="F904" s="4"/>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -7740,7 +7779,7 @@
       <c r="E905" s="4"/>
       <c r="F905" s="4"/>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -7748,7 +7787,7 @@
       <c r="E906" s="4"/>
       <c r="F906" s="4"/>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -7756,7 +7795,7 @@
       <c r="E907" s="4"/>
       <c r="F907" s="4"/>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -7764,7 +7803,7 @@
       <c r="E908" s="4"/>
       <c r="F908" s="4"/>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -7772,7 +7811,7 @@
       <c r="E909" s="4"/>
       <c r="F909" s="4"/>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -7780,7 +7819,7 @@
       <c r="E910" s="4"/>
       <c r="F910" s="4"/>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -7788,7 +7827,7 @@
       <c r="E911" s="4"/>
       <c r="F911" s="4"/>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -7796,7 +7835,7 @@
       <c r="E912" s="4"/>
       <c r="F912" s="4"/>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -7804,7 +7843,7 @@
       <c r="E913" s="4"/>
       <c r="F913" s="4"/>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -7812,7 +7851,7 @@
       <c r="E914" s="4"/>
       <c r="F914" s="4"/>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -7820,7 +7859,7 @@
       <c r="E915" s="4"/>
       <c r="F915" s="4"/>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -7828,7 +7867,7 @@
       <c r="E916" s="4"/>
       <c r="F916" s="4"/>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -7836,7 +7875,7 @@
       <c r="E917" s="4"/>
       <c r="F917" s="4"/>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -7844,7 +7883,7 @@
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -7852,7 +7891,7 @@
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -7860,7 +7899,7 @@
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -7868,7 +7907,7 @@
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -7876,7 +7915,7 @@
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -7884,7 +7923,7 @@
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -7892,7 +7931,7 @@
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -7900,7 +7939,7 @@
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -7908,7 +7947,7 @@
       <c r="E926" s="4"/>
       <c r="F926" s="4"/>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -7916,7 +7955,7 @@
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -7924,7 +7963,7 @@
       <c r="E928" s="4"/>
       <c r="F928" s="4"/>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -7932,7 +7971,7 @@
       <c r="E929" s="4"/>
       <c r="F929" s="4"/>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -7940,7 +7979,7 @@
       <c r="E930" s="4"/>
       <c r="F930" s="4"/>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -7948,7 +7987,7 @@
       <c r="E931" s="4"/>
       <c r="F931" s="4"/>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -7956,7 +7995,7 @@
       <c r="E932" s="4"/>
       <c r="F932" s="4"/>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -7964,7 +8003,7 @@
       <c r="E933" s="4"/>
       <c r="F933" s="4"/>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -7972,7 +8011,7 @@
       <c r="E934" s="4"/>
       <c r="F934" s="4"/>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -7980,7 +8019,7 @@
       <c r="E935" s="4"/>
       <c r="F935" s="4"/>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -7988,7 +8027,7 @@
       <c r="E936" s="4"/>
       <c r="F936" s="4"/>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -7996,7 +8035,7 @@
       <c r="E937" s="4"/>
       <c r="F937" s="4"/>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -8004,7 +8043,7 @@
       <c r="E938" s="4"/>
       <c r="F938" s="4"/>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -8012,7 +8051,7 @@
       <c r="E939" s="4"/>
       <c r="F939" s="4"/>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -8020,7 +8059,7 @@
       <c r="E940" s="4"/>
       <c r="F940" s="4"/>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -8028,7 +8067,7 @@
       <c r="E941" s="4"/>
       <c r="F941" s="4"/>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -8036,7 +8075,7 @@
       <c r="E942" s="4"/>
       <c r="F942" s="4"/>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -8044,7 +8083,7 @@
       <c r="E943" s="4"/>
       <c r="F943" s="4"/>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -8052,7 +8091,7 @@
       <c r="E944" s="4"/>
       <c r="F944" s="4"/>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -8060,7 +8099,7 @@
       <c r="E945" s="4"/>
       <c r="F945" s="4"/>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -8068,7 +8107,7 @@
       <c r="E946" s="4"/>
       <c r="F946" s="4"/>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -8076,7 +8115,7 @@
       <c r="E947" s="4"/>
       <c r="F947" s="4"/>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -8084,7 +8123,7 @@
       <c r="E948" s="4"/>
       <c r="F948" s="4"/>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -8092,7 +8131,7 @@
       <c r="E949" s="4"/>
       <c r="F949" s="4"/>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -8100,7 +8139,7 @@
       <c r="E950" s="4"/>
       <c r="F950" s="4"/>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -8108,7 +8147,7 @@
       <c r="E951" s="4"/>
       <c r="F951" s="4"/>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -8116,7 +8155,7 @@
       <c r="E952" s="4"/>
       <c r="F952" s="4"/>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -8124,7 +8163,7 @@
       <c r="E953" s="4"/>
       <c r="F953" s="4"/>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -8132,7 +8171,7 @@
       <c r="E954" s="4"/>
       <c r="F954" s="4"/>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -8140,7 +8179,7 @@
       <c r="E955" s="4"/>
       <c r="F955" s="4"/>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -8148,7 +8187,7 @@
       <c r="E956" s="4"/>
       <c r="F956" s="4"/>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -8156,7 +8195,7 @@
       <c r="E957" s="4"/>
       <c r="F957" s="4"/>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -8164,7 +8203,7 @@
       <c r="E958" s="4"/>
       <c r="F958" s="4"/>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -8172,7 +8211,7 @@
       <c r="E959" s="4"/>
       <c r="F959" s="4"/>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -8180,7 +8219,7 @@
       <c r="E960" s="4"/>
       <c r="F960" s="4"/>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -8188,7 +8227,7 @@
       <c r="E961" s="4"/>
       <c r="F961" s="4"/>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -8196,7 +8235,7 @@
       <c r="E962" s="4"/>
       <c r="F962" s="4"/>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -8204,7 +8243,7 @@
       <c r="E963" s="4"/>
       <c r="F963" s="4"/>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -8212,7 +8251,7 @@
       <c r="E964" s="4"/>
       <c r="F964" s="4"/>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -8220,7 +8259,7 @@
       <c r="E965" s="4"/>
       <c r="F965" s="4"/>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -8228,7 +8267,7 @@
       <c r="E966" s="4"/>
       <c r="F966" s="4"/>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -8236,7 +8275,7 @@
       <c r="E967" s="4"/>
       <c r="F967" s="4"/>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -8244,7 +8283,7 @@
       <c r="E968" s="4"/>
       <c r="F968" s="4"/>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -8252,7 +8291,7 @@
       <c r="E969" s="4"/>
       <c r="F969" s="4"/>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -8260,7 +8299,7 @@
       <c r="E970" s="4"/>
       <c r="F970" s="4"/>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -8268,7 +8307,7 @@
       <c r="E971" s="4"/>
       <c r="F971" s="4"/>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -8276,7 +8315,7 @@
       <c r="E972" s="4"/>
       <c r="F972" s="4"/>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -8284,7 +8323,7 @@
       <c r="E973" s="4"/>
       <c r="F973" s="4"/>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -8292,7 +8331,7 @@
       <c r="E974" s="4"/>
       <c r="F974" s="4"/>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -8300,7 +8339,7 @@
       <c r="E975" s="4"/>
       <c r="F975" s="4"/>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -8308,7 +8347,7 @@
       <c r="E976" s="4"/>
       <c r="F976" s="4"/>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -8316,7 +8355,7 @@
       <c r="E977" s="4"/>
       <c r="F977" s="4"/>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -8324,7 +8363,7 @@
       <c r="E978" s="4"/>
       <c r="F978" s="4"/>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -8332,7 +8371,7 @@
       <c r="E979" s="4"/>
       <c r="F979" s="4"/>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -8340,7 +8379,7 @@
       <c r="E980" s="4"/>
       <c r="F980" s="4"/>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -8348,7 +8387,7 @@
       <c r="E981" s="4"/>
       <c r="F981" s="4"/>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -8356,7 +8395,7 @@
       <c r="E982" s="4"/>
       <c r="F982" s="4"/>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -8364,7 +8403,7 @@
       <c r="E983" s="4"/>
       <c r="F983" s="4"/>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -8372,7 +8411,7 @@
       <c r="E984" s="4"/>
       <c r="F984" s="4"/>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -8380,7 +8419,7 @@
       <c r="E985" s="4"/>
       <c r="F985" s="4"/>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -8388,7 +8427,7 @@
       <c r="E986" s="4"/>
       <c r="F986" s="4"/>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -8396,7 +8435,7 @@
       <c r="E987" s="4"/>
       <c r="F987" s="4"/>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -8404,7 +8443,7 @@
       <c r="E988" s="4"/>
       <c r="F988" s="4"/>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -8412,7 +8451,7 @@
       <c r="E989" s="4"/>
       <c r="F989" s="4"/>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -8420,7 +8459,7 @@
       <c r="E990" s="4"/>
       <c r="F990" s="4"/>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -8428,7 +8467,7 @@
       <c r="E991" s="4"/>
       <c r="F991" s="4"/>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -8436,7 +8475,7 @@
       <c r="E992" s="4"/>
       <c r="F992" s="4"/>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -8444,7 +8483,7 @@
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -8452,7 +8491,7 @@
       <c r="E994" s="4"/>
       <c r="F994" s="4"/>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -8460,7 +8499,7 @@
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -8468,7 +8507,7 @@
       <c r="E996" s="4"/>
       <c r="F996" s="4"/>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -8476,7 +8515,7 @@
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -8484,7 +8523,7 @@
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -8492,7 +8531,7 @@
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
@@ -8501,7 +8540,6 @@
       <c r="F1000" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="maTxZ9PocnaUumroFpXMhlC+J3yjT/OIOFRWUE2itei1gPBMa2bOz6Wv0Ld75wkgxG2XxjI+u3SjCjJ7JsEbDA==" saltValue="ZOHEqsVyDXEmCL2gwvv01g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/public/CMC_import_Template_v1.xlsx
+++ b/public/CMC_import_Template_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Sanju Space\Web Applications\EMS\EMS-Frontend\Qubinest-Frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F97E9ED-B649-48F8-A31C-497E2F7EFB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36857F8D-FCD7-4EF3-B95D-A05C147B7ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CE338C7-D65B-4040-912F-A34C5F7D4BB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>preRegisteredAmount</t>
-  </si>
-  <si>
-    <t>ww</t>
   </si>
 </sst>
 </file>
@@ -452,13 +449,14 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -14023,9 +14021,7 @@
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
-      <c r="D967" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D967" s="1"/>
       <c r="E967" s="1"/>
       <c r="F967" s="1"/>
       <c r="G967" s="1"/>
@@ -14498,7 +14494,12 @@
       <c r="L1000" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aF20XkFjSkKC2ekpNjw0DQ+mTBJMl6FRl1ylr+3qLpgmOH3WeDirxpcEAYgCtbhYTXww+9MlO2HwIzjhWfP5hQ==" saltValue="Kp27B/UxdLSaonOR1aFW8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xtDL1829kFGDsFobreDgtBNNtJmMevovJoe1/wQGAU/BMCfdFljfJj1UTU1+q8VOp/J0Xk6bTe025cDINVhqIg==" saltValue="IB2jtbVNYTKxirPEhkiOdw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <dataValidations xWindow="112" yWindow="284" count="1">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Add 10 numbers only" sqref="B2:B1000" xr:uid="{B1C691AF-C348-4733-9D40-C22AC02D2F20}">
+      <formula1>10</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>